--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="validcreds" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="invalidcreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Team</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>admi</t>
+  </si>
+  <si>
+    <t>Admin@</t>
+  </si>
+  <si>
+    <t>Manager@123</t>
+  </si>
+  <si>
+    <t>qspipder</t>
+  </si>
+  <si>
+    <t>actime</t>
+  </si>
+  <si>
+    <t>testYantra</t>
+  </si>
+  <si>
+    <t>Fireflink</t>
+  </si>
+  <si>
+    <t>manage</t>
   </si>
 </sst>
 </file>
@@ -149,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -597,12 +625,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>